--- a/machine_learning/noe_result.xlsx
+++ b/machine_learning/noe_result.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>

--- a/machine_learning/noe_result.xlsx
+++ b/machine_learning/noe_result.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>

--- a/machine_learning/noe_result.xlsx
+++ b/machine_learning/noe_result.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>

--- a/machine_learning/noe_result.xlsx
+++ b/machine_learning/noe_result.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>others</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>

--- a/machine_learning/noe_result.xlsx
+++ b/machine_learning/noe_result.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bee</t>
+          <t>bumblebee</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bumblebee</t>
+          <t>bee</t>
         </is>
       </c>
     </row>
